--- a/Shiny/Dati/Collirio_2waov_O.xlsx
+++ b/Shiny/Dati/Collirio_2waov_O.xlsx
@@ -21,9 +21,6 @@
     <t>Preparazione</t>
   </si>
   <si>
-    <t>lotto</t>
-  </si>
-  <si>
     <t>Pesata</t>
   </si>
   <si>
@@ -37,6 +34,9 @@
   </si>
   <si>
     <t>A10s</t>
+  </si>
+  <si>
+    <t>Lotto</t>
   </si>
 </sst>
 </file>
@@ -371,7 +371,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -381,15 +381,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>2150</v>
@@ -400,7 +400,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>2150</v>
@@ -411,7 +411,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>2150</v>
@@ -422,7 +422,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>2150</v>
@@ -433,7 +433,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>2151</v>
@@ -444,7 +444,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>2151</v>
@@ -455,7 +455,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>2151</v>
@@ -466,7 +466,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>2151</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>2150</v>
@@ -488,7 +488,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>2150</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>2150</v>
@@ -510,7 +510,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>2150</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14">
         <v>2151</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15">
         <v>2151</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16">
         <v>2151</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17">
         <v>2151</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18">
         <v>2150</v>
@@ -576,7 +576,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <v>2150</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <v>2150</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21">
         <v>2150</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22">
         <v>2151</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23">
         <v>2151</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24">
         <v>2151</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25">
         <v>2151</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26">
         <v>2150</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27">
         <v>2150</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28">
         <v>2150</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29">
         <v>2150</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30">
         <v>2151</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31">
         <v>2151</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32">
         <v>2151</v>
@@ -730,7 +730,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33">
         <v>2151</v>
